--- a/test excel/test.xlsx
+++ b/test excel/test.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Проекты\Python Parser\test excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -19,20 +24,20 @@
     <t>Hello, World!</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>It's me!!!!</t>
   </si>
   <si>
     <t>Bold</t>
   </si>
-  <si>
-    <t>Title</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,12 +54,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE1111"/>
+        <bgColor rgb="FFEE1111"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
+        <bgColor rgb="FF98FB98"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347"/>
+        <bgColor rgb="FFFF6347"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,15 +92,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -365,49 +400,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>123</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>123.456</v>
       </c>
@@ -418,7 +455,7 @@
         <v>123.456</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>123.456</v>
       </c>
